--- a/data/target.xlsx
+++ b/data/target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Date/Time local</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>Spearphishing campaign against 20+ users</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -225,19 +222,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -293,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,16 +295,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -630,18 +615,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="51.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="91.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="195.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="51.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="91.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="195.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="15.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,111 +975,47 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3"/>
